--- a/RegistroProblemasExcel.xlsx
+++ b/RegistroProblemasExcel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>PRODUCTO</t>
   </si>
@@ -47,19 +47,10 @@
     <t>Cubic-SQ6</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Cubic-TLCA</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Cubic-TLRCA</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>PRODUCTOS</t>
@@ -697,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -706,7 +697,6 @@
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1272,7 +1262,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A562" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1310,22 +1300,16 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1333,13 +1317,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3763,9 +3741,7 @@
       <c r="C584" s="1"/>
     </row>
     <row r="585" ht="36.75" customHeight="1">
-      <c r="B585" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B585" s="3"/>
       <c r="C585" s="3" t="s">
         <v>1</v>
       </c>
@@ -3931,158 +3907,164 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="26" disablePrompts="0">
-        <x14:dataValidation xr:uid="{001900C3-000A-4174-A467-000200D0008D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="27" disablePrompts="0">
+        <x14:dataValidation xr:uid="{000B00EF-0014-4107-811C-007C0091000F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>PRODUCTOS</xm:f>
           </x14:formula1>
           <xm:sqref>B2 B623:B1048576 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101 B102 B103 B104 B105 B106 B107 B108 B109 B110 B111 B112 B113 B114 B115 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B126 B127 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B158 B159 B160 B162 B163 B164 B165 B166 B167 B168 B169 B170 B171 B172 B173 B174 B175 B176 B177 B178 B179 B180 B181 B182 B183 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B216 B217 B218 B219 B220 B221 B222 B223 B224 B225 B226 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B257 B258 B259 B260 B261 B262 B263 B264 B265 B266 B267 B268 B269 B270 B271 B272 B273 B274 B275 B276 B277 B278 B279 B280 B281 B282 B283 B284 B285 B286 B287 B288 B290 B291 B292 B293 B294 B295 B296 B297 B298 B299 B300 B301 B302 B303 B304 B305 B306 B307 B308 B309 B310 B311 B312 B313 B314 B315 B316 B317 B318 B319 B320 B321 B322 B323 B324 B325 B326 B327 B328 B329 B330 B331 B332 B334 B335 B336 B337 B338 B339 B340 B341 B342 B343 B344 B345 B346 B347 B348 B349 B350 B351 B352 B353 B354 B355 B356 B357 B358 B359 B360 B361 B362 B363 B364 B365 B366 B367 B368 B369 B370 B371 B372 B373 B374 B376 B377 B378 B379 B380 B381 B382 B383 B384 B385 B386 B387 B388 B389 B390 B391 B392 B393 B394 B395 B396 B397 B398 B399 B400 B401 B402 B403 B404 B405 B406 B407 B408 B409 B410 B411 B412 B413 B414 B415 B416 B418 B419 B420 B421 B422 B423 B424 B425 B426 B427 B428 B429 B430 B431 B432 B433 B434 B435 B436 B437 B438 B439 B440 B441 B442 B443 B444 B445 B446 B447 B448 B449 B450 B451 B452 B453 B454 B455 B456 B457 B458 B460 B461 B462 B463 B464 B465 B466 B467 B468 B469 B470 B471 B472 B473 B474 B475 B476 B477 B478 B479 B480 B481 B482 B483 B484 B485 B486 B487 B488 B489 B490 B491 B492 B493 B494 B495 B496 B497 B498 B499 B500 B502 B503 B504 B505 B506 B507 B508 B509 B510 B511 B512 B513 B514 B515 B516 B517 B518 B519 B520 B521 B522 B523 B524 B525 B526 B527 B528 B529 B530 B531 B532 B533 B534 B535 B536 B537 B538 B539 B540 B541 B542 B544 B545 B546 B547 B548 B549 B550 B551 B552 B553 B554 B555 B556 B557 B558 B559 B560 B561 B562 B563 B564 B565 B566 B567 B568 B569 B570 B571 B572 B573 B574 B575 B576 B577 B578 B579 B580 B581 B582 B583 B584 B586 B587 B588 B589 B590 B591 B592 B593 B594 B595 B596 B597 B598 B599 B600 B601 B602 B603 B604 B605 B606 B607 B608 B609 B610 B611 B612 B613 B614 B615 B616 B617 B618 B619 B620 B621 B622</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F5006D-0001-45CB-BD04-00BB001900C8}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001E0023-001A-45EF-978E-005D005100A0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>""</xm:f>
           </x14:formula1>
           <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00820087-0098-418E-A2B9-0003008E002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005F0079-0020-4A7E-A220-00FA00CA00DB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
-          <xm:sqref>C1 C623:C1048576</xm:sqref>
+          <xm:sqref>C623:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000100D2-0011-4527-818C-00560086006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00190003-004C-4B7C-8EBA-00DB004E00CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(B2)</xm:f>
           </x14:formula1>
           <xm:sqref>C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C162 C163 C164 C165 C166 C167 C168 C169 C170 C171 C172 C173 C174 C175 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C199 C200 C201 C202 C203 C204 C206 C207 C208 C209 C210 C211 C212 C213 C214 C215 C216 C217 C218 C219 C220 C221 C222 C223 C224 C225 C226 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C260 C261 C262 C263 C264 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C303 C304 C305 C306 C307 C308 C309 C310 C311 C312 C313 C314 C315 C316 C317 C318 C319 C320 C321 C322 C323 C324 C325 C326 C327 C328 C329 C330 C331 C332 C334 C335 C336 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C392 C393 C394 C395 C396 C397 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C430 C431 C432 C433 C434 C435 C436 C437 C438 C439 C440 C441 C442 C443 C444 C445 C446 C447 C448 C449 C450 C451 C452 C453 C454 C455 C456 C457 C458 C460 C461 C462 C463 C464 C465 C466 C467 C468 C469 C470 C471 C472 C473 C474 C475 C476 C477 C478 C479 C480 C481 C482 C483 C484 C485 C486 C487 C488 C489 C490 C491 C492 C493 C494 C495 C496 C497 C498 C499 C500 C502 C503 C504 C505 C506 C507 C508 C509 C510 C511 C512 C513 C514 C515 C516 C517 C518 C519 C520 C521 C522 C523 C524 C525 C526 C527 C528 C529 C530 C531 C532 C533 C534 C535 C536 C537 C538 C539 C540 C541 C542 C544 C545 C546 C547 C548 C549 C550 C551 C552 C553 C554 C555 C556 C557 C558 C559 C560 C561 C562 C563 C564 C565 C566 C567 C568 C569 C570 C571 C572 C573 C574 C575 C576 C577 C578 C579 C580 C581 C582 C583 C584 C586 C587 C588 C589 C590 C591 C592 C593 C594 C595 C596 C597 C598 C599 C600 C601 C602 C603 C604 C605 C606 C607 C608 C609 C610 C611 C612 C613 C614 C615 C616 C617 C618 C619 C620 C621 C622</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00870072-00DF-4145-B01A-0058004B004E}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00380047-0046-4B87-9EA6-00BD0072001C}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>""</xm:f>
           </x14:formula1>
           <xm:sqref>B161</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007F006D-002A-455A-8013-004D009A000C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CE00BF-00BB-4B8F-8912-00100093007D}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B205</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00920059-00DA-435B-AD96-0077004D003C}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B246</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{005C00F8-00DA-4A02-96A5-004B000500B9}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B289</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00AA00F2-0072-4E73-8C1F-0018006100E5}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B333</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{001E0090-005F-4FEE-B5C2-001F00CA00C8}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B375</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00FE0091-00E2-4688-8DB0-00D300F100FE}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B417</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00B300A7-003F-4BAB-A2F1-005C00470035}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B459</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{004B00F9-003F-4294-ABF3-0016008400B1}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B501</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F7009F-00AF-40D3-A903-0013002100C9}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B543</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008D0029-00DF-46CF-96D5-009500DD0068}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>""</xm:f>
+          </x14:formula1>
+          <xm:sqref>B585</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00060018-0024-483F-B103-0094003C008C}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>INDIRECT(PRODUCTO)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00010063-0056-44B2-8487-003E000300CA}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C161</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0024002F-004F-4E1E-9EB6-009F002600ED}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B205</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00070009-005E-440A-855E-005C001600B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003F00F3-0052-4008-9240-007200BE00C8}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C205</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008F00AD-009A-49DE-B9F6-00B50082003B}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B246</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007400B4-00FC-4B1C-9F79-008000FA00C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00260027-007A-4AF6-8171-0045003A00C1}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C246</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00420018-00B0-4A8A-9680-00B7000000AE}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B289</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DD00BB-0097-40B4-ADAD-00F7008900CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003E0052-0030-4B86-A245-007E000B0004}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C289</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F700DE-00C3-4A68-A23F-0003007F00FC}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B333</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009B00AA-00FE-4738-B083-003E0042009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B60038-005E-4595-8044-001900070076}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C333</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A600AB-0044-47FB-B45C-003400220018}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B375</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0049004F-0044-4D4D-99C3-001100E70051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E00094-00F1-4353-84DF-00C700C9000C}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C375</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0088006C-00E3-460A-9D42-0028004A0038}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B417</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BE00B7-00B9-4DD7-9C77-006E0079003B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B00095-005A-4DC6-A9EA-006B002F0052}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C417</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0017004E-0091-4B99-B696-00FC009600D1}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B459</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0014002F-00ED-4FFC-BCE7-0091003800F0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0041005D-000C-4548-BC1C-009F00DD00E7}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C459</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A00BF-0081-43ED-B344-000E00E90097}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B501</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A30044-00B3-4720-A09B-00F800A70046}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00510080-0000-4A04-AD93-002D00B800FE}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C501</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005C006A-0021-4E8B-AF73-00F900640081}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B543</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000600C2-001B-42E9-9E5F-005F00850051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C0008B-0034-447D-B84A-0097006B00DE}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>C543</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0045003F-0025-4F38-808D-009B006600C3}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>""</xm:f>
-          </x14:formula1>
-          <xm:sqref>B585</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001300B7-0076-4F3C-8E3A-00C300D40066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0015007A-0027-4E07-90A8-009000E50063}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
@@ -4103,8 +4085,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="5" width="29.28125"/>
-    <col customWidth="1" min="2" max="2" style="5" width="31.57421875"/>
+    <col customWidth="1" min="1" max="1" style="4" width="29.28125"/>
+    <col customWidth="1" min="2" max="2" style="4" width="31.57421875"/>
     <col customWidth="1" min="3" max="3" width="25.421875"/>
     <col customWidth="1" min="4" max="4" width="29.00390625"/>
     <col customWidth="1" min="5" max="5" width="27.00390625"/>
@@ -4114,509 +4096,509 @@
     <col customWidth="1" min="9" max="9" width="27.28125"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="5" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="14" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="14" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="14" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="F9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="14" t="s">
+      <c r="F11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="15" t="s">
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="B12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="D12" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="15" t="s">
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="B13" s="15" t="s">
+    <row r="14" ht="14.25">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="18" t="s">
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" s="15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="17" ht="14.25">
+      <c r="F17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="18" t="s">
+    </row>
+    <row r="18" ht="14.25">
+      <c r="F18" s="17" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="F17" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="F18" s="18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" ht="14.25"/>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="B20" s="5"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="23" ht="45.75" customHeight="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="E23" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="F23" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="24" t="s">
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="C24" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="E24" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="F24" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="30" t="s">
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="C25" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="33" t="s">
+      <c r="D25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="E25" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="F25" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="B26" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="C26" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="34" t="s">
+      <c r="D26" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="F26" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="29" t="s">
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="27" t="s">
+      <c r="D27" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="F27" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="29" t="s">
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="D28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="33" t="s">
+      <c r="F28" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="29" t="s">
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="27" t="s">
+    <row r="31" ht="14.25">
+      <c r="A31" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="31" t="s">
+      <c r="F31" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="32" t="s">
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="27" t="s">
+      <c r="F32" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="32" t="s">
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="26" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="27" t="s">
+      <c r="F33" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F32" s="32" t="s">
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="27" t="s">
+      <c r="F34" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="32" t="s">
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="27" t="s">
+      <c r="F35" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="32" t="s">
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="27" t="s">
+      <c r="F36" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="32" t="s">
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="27" t="s">
+      <c r="F37" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="32" t="s">
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="26" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="27" t="s">
+      <c r="F38" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="32" t="s">
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="27" t="s">
+      <c r="F39" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="32" t="s">
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="27" t="s">
+    <row r="41" ht="14.25">
+      <c r="A41" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="32" t="s">
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="26" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="27" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/RegistroProblemasExcel.xlsx
+++ b/RegistroProblemasExcel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -30,16 +30,22 @@
     <t>PANTALLAS</t>
   </si>
   <si>
-    <t>TERMOSTATOS</t>
+    <t xml:space="preserve">VIDEO PORTEROS</t>
+  </si>
+  <si>
+    <t>LUCESS</t>
   </si>
   <si>
     <t>PERSIANAS</t>
   </si>
   <si>
-    <t>CUBIK</t>
+    <t>TERMOSTATOS</t>
   </si>
   <si>
-    <t>USUARIO</t>
+    <t>ALARMAS</t>
+  </si>
+  <si>
+    <t>APPS</t>
   </si>
   <si>
     <t>OTROS</t>
@@ -127,23 +133,23 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -151,14 +157,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,6 +193,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,7 +714,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A231" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +784,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7"/>
@@ -784,7 +793,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="7"/>
@@ -793,7 +802,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="7"/>
@@ -820,18 +829,26 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -1421,8 +1438,8 @@
     </row>
     <row r="161" ht="43.5" customHeight="1">
       <c r="A161" s="4"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -1598,8 +1615,8 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="4"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -1763,8 +1780,8 @@
     </row>
     <row r="246" ht="18" customHeight="1">
       <c r="A246" s="4"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -1936,8 +1953,8 @@
     </row>
     <row r="289" ht="39.75" customHeight="1">
       <c r="A289" s="4"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -2113,8 +2130,8 @@
     </row>
     <row r="333" ht="39" customHeight="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="12"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -2282,8 +2299,8 @@
     </row>
     <row r="375" ht="42" customHeight="1">
       <c r="A375" s="4"/>
-      <c r="B375" s="12"/>
-      <c r="C375" s="12"/>
+      <c r="B375" s="13"/>
+      <c r="C375" s="13"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -2451,8 +2468,8 @@
     </row>
     <row r="417" ht="42" customHeight="1">
       <c r="A417" s="4"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -2620,8 +2637,8 @@
     </row>
     <row r="459" ht="40.5" customHeight="1">
       <c r="A459" s="4"/>
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
+      <c r="B459" s="13"/>
+      <c r="C459" s="13"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -2789,8 +2806,8 @@
     </row>
     <row r="501" ht="41.25" customHeight="1">
       <c r="A501" s="4"/>
-      <c r="B501" s="12"/>
-      <c r="C501" s="12"/>
+      <c r="B501" s="13"/>
+      <c r="C501" s="13"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -2958,8 +2975,8 @@
     </row>
     <row r="543" ht="43.5" customHeight="1">
       <c r="A543" s="4"/>
-      <c r="B543" s="12"/>
-      <c r="C543" s="12"/>
+      <c r="B543" s="13"/>
+      <c r="C543" s="13"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -3127,8 +3144,8 @@
     </row>
     <row r="585" ht="36.75" customHeight="1">
       <c r="A585" s="4"/>
-      <c r="B585" s="12"/>
-      <c r="C585" s="12"/>
+      <c r="B585" s="13"/>
+      <c r="C585" s="13"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -3289,99 +3306,99 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16" disablePrompts="0">
-        <x14:dataValidation xr:uid="{004E00D9-003E-4FF4-AF9C-001300960057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0096002F-00D4-4582-98A2-0009005700B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A623:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006E00EC-0020-4ADC-AB86-00FA009B000F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007F000A-00E2-426F-BA66-0025007600AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(B2)</xm:f>
           </x14:formula1>
           <xm:sqref>A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57 A58 A59 A60 A61 A62 A63 A64 A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A89 A90 A91 A92 A93 A94 A95 A96 A97 A98 A99 A100 A101 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A115 A116 A117 A118 A119 A120 A121 A122 A123 A124 A125 A126 A127 A128 A129 A130 A131 A132 A133 A134 A135 A136 A137 A138 A139 A140 A141 A142 A143 A144 A145 A146 A147 A148 A149 A150 A151 A152 A153 A154 A155 A156 A157 A158 A159 A160 A162 A163 A164 A165 A166 A167 A168 A169 A170 A171 A172 A173 A174 A175 A176 A177 A178 A179 A180 A181 A182 A183 A184 A185 A186 A187 A188 A189 A190 A191 A192 A193 A194 A195 A196 A197 A198 A199 A200 A201 A202 A203 A204 A206 A207 A208 A209 A210 A211 A212 A213 A214 A215 A216 A217 A218 A219 A220 A221 A222 A223 A224 A225 A226 A227 A228 A229 A230 A231 A232 A233 A234 A235 A236 A237 A238 A239 A240 A241 A242 A243 A244 A245 A247 A248 A249 A250 A251 A252 A253 A254 A255 A256 A257 A258 A259 A260 A261 A262 A263 A264 A265 A266 A267 A268 A269 A270 A271 A272 A273 A274 A275 A276 A277 A278 A279 A280 A281 A282 A283 A284 A285 A286 A287 A288 A290 A291 A292 A293 A294 A295 A296 A297 A298 A299 A300 A301 A302 A303 A304 A305 A306 A307 A308 A309 A310 A311 A312 A313 A314 A315 A316 A317 A318 A319 A320 A321 A322 A323 A324 A325 A326 A327 A328 A329 A330 A331 A332 A334 A335 A336 A337 A338 A339 A340 A341 A342 A343 A344 A345 A346 A347 A348 A349 A350 A351 A352 A353 A354 A355 A356 A357 A358 A359 A360 A361 A362 A363 A364 A365 A366 A367 A368 A369 A370 A371 A372 A373 A374 A376 A377 A378 A379 A380 A381 A382 A383 A384 A385 A386 A387 A388 A389 A390 A391 A392 A393 A394 A395 A396 A397 A398 A399 A400 A401 A402 A403 A404 A405 A406 A407 A408 A409 A410 A411 A412 A413 A414 A415 A416 A418 A419 A420 A421 A422 A423 A424 A425 A426 A427 A428 A429 A430 A431 A432 A433 A434 A435 A436 A437 A438 A439 A440 A441 A442 A443 A444 A445 A446 A447 A448 A449 A450 A451 A452 A453 A454 A455 A456 A457 A458 A460 A461 A462 A463 A464 A465 A466 A467 A468 A469 A470 A471 A472 A473 A474 A475 A476 A477 A478 A479 A480 A481 A482 A483 A484 A485 A486 A487 A488 A489 A490 A491 A492 A493 A494 A495 A496 A497 A498 A499 A500 A502 A503 A504 A505 A506 A507 A508 A509 A510 A511 A512 A513 A514 A515 A516 A517 A518 A519 A520 A521 A522 A523 A524 A525 A526 A527 A528 A529 A530 A531 A532 A533 A534 A535 A536 A537 A538 A539 A540 A541 A542 A544 A545 A546 A547 A548 A549 A550 A551 A552 A553 A554 A555 A556 A557 A558 A559 A560 A561 A562 A563 A564 A565 A566 A567 A568 A569 A570 A571 A572 A573 A574 A575 A576 A577 A578 A579 A580 A581 A582 A583 A584 A586 A587 A588 A589 A590 A591 A592 A593 A594 A595 A596 A597 A598 A599 A600 A601 A602 A603 A604 A605 A606 A607 A608 A609 A610 A611 A612 A613 A614 A615 A616 A617 A618 A619 A620 A621 A622</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0009001D-00C4-43E9-B678-006500800024}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003100D8-006F-475D-981A-001200B60004}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00190098-00F0-46B0-8170-00D5009A004D}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008100D4-00E9-48A9-8DCC-00F6008A0016}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A161</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007F003D-002F-4CD7-BE07-004100C10019}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003A0038-0012-4A91-823B-00BD007900E1}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A205</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007E0020-0051-4E99-8903-009200D30068}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009A00C6-007E-43B9-AB5B-0095009E0085}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A246</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003E000A-00E7-4346-A4C6-0027002F00EF}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D30042-0016-4FA9-A2D6-0070002900C9}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A289</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004A00F6-00C8-41C0-83DA-0053003A00B8}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008A00F5-0099-414C-8A84-008600DD0096}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A333</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00130095-008F-40FF-A370-00DA00DE009F}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005B002C-0016-4573-80FA-00D00090007A}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A375</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B00CB-001A-488E-B5D7-0078000600D7}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005400B7-0073-4550-A5F9-008E00AE0026}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A417</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A0030-000C-410C-9D04-005900230063}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0075006B-00E9-48FC-AEF9-00C100B600F0}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A459</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D008F-004C-44AC-B513-00A200AA009D}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003700A1-0085-49F1-8BA7-00B200BB0052}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A501</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0072006A-0085-4FB5-AEBF-00E7009400B3}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000200B4-00A8-4590-9A63-006900E50069}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A543</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D0074-00A4-4103-B9EC-00B200DC0025}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B50086-0088-4F9C-ACC3-003700EE0077}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT(PRODUCTO)</xm:f>
           </x14:formula1>
           <xm:sqref>A585</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D60015-005D-4A84-801D-000300050048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002200FC-00AE-44BD-9C0D-002D00A50061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C800EA-00A6-41BC-AEFF-00CA009200C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008F007E-0076-4CFF-ADBC-00A2006E0032}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>$H$6:$H$11</xm:f>
+            <xm:f>$H$6:$H$13</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
